--- a/www/tabepid.xlsx
+++ b/www/tabepid.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/748e014a72d91fa1/GitHub/Dashboard Lonomia misiones/www/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/748e014a72d91fa1/GitHub/dashboard_lonomia_AR/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="219" documentId="11_AD4D361C20488DEA4E38A038EC5D5DBC5ADEDD95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C74665B-B535-4EB0-82C0-CC2C00DCA90A}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="11_AD4D361C20488DEA4E38A038EC5D5DBC5ADEDD95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{632156A5-6F3F-40DD-9DE0-5D9367D2D45F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="132">
   <si>
     <t>Variable</t>
   </si>
@@ -93,12 +93,6 @@
   </si>
   <si>
     <t>San Pedro</t>
-  </si>
-  <si>
-    <t>During work activity</t>
-  </si>
-  <si>
-    <t>During recreational activity</t>
   </si>
   <si>
     <t>06:00 - 12:00h</t>
@@ -563,9 +557,6 @@
     <t>Periurbano</t>
   </si>
   <si>
-    <t>Bosque</t>
-  </si>
-  <si>
     <t>Departmento</t>
   </si>
   <si>
@@ -588,6 +579,93 @@
   </si>
   <si>
     <t>11-20</t>
+  </si>
+  <si>
+    <t>Nombre popular</t>
+  </si>
+  <si>
+    <t>Palta</t>
+  </si>
+  <si>
+    <t>Araticú</t>
+  </si>
+  <si>
+    <t>Crespón</t>
+  </si>
+  <si>
+    <t>Anchico blanco</t>
+  </si>
+  <si>
+    <t>Arbol de ciruelo</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Cacheta</t>
+  </si>
+  <si>
+    <t>Mora blanca</t>
+  </si>
+  <si>
+    <t>Curupí caí</t>
+  </si>
+  <si>
+    <t>Lechero, palo de leche</t>
+  </si>
+  <si>
+    <t>Brejo</t>
+  </si>
+  <si>
+    <t>Guazatunga blanca</t>
+  </si>
+  <si>
+    <t>Guazatunga</t>
+  </si>
+  <si>
+    <t>Burro caá</t>
+  </si>
+  <si>
+    <t>Laurel amarillo</t>
+  </si>
+  <si>
+    <t>Rabo itá</t>
+  </si>
+  <si>
+    <t>Cedro</t>
+  </si>
+  <si>
+    <t>Arbol de pera</t>
+  </si>
+  <si>
+    <t>Arbol de mora</t>
+  </si>
+  <si>
+    <t>Canela de venado</t>
+  </si>
+  <si>
+    <t>Camboatá blanco</t>
+  </si>
+  <si>
+    <t>Mataojos</t>
+  </si>
+  <si>
+    <t>Arbol de kiri</t>
+  </si>
+  <si>
+    <t>Carne de vaca</t>
+  </si>
+  <si>
+    <t>Zoita</t>
+  </si>
+  <si>
+    <t>Durante la actividad laboral</t>
+  </si>
+  <si>
+    <t>Durante la actividad recreativa</t>
+  </si>
+  <si>
+    <t>Selva</t>
   </si>
 </sst>
 </file>
@@ -719,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -740,22 +818,10 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,15 +1145,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -1098,10 +1164,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
         <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
       </c>
       <c r="C3">
         <v>29</v>
@@ -1112,7 +1178,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1126,10 +1192,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -1140,7 +1206,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1154,7 +1220,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1168,7 +1234,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1182,7 +1248,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1196,7 +1262,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1210,10 +1276,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1224,10 +1290,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -1238,7 +1304,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1252,10 +1318,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1266,10 +1332,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1280,7 +1346,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1294,7 +1360,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1308,7 +1374,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1322,7 +1388,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -1336,7 +1402,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1350,7 +1416,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -1364,7 +1430,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1378,7 +1444,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1392,10 +1458,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -1406,10 +1472,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="C25">
         <v>23</v>
@@ -1420,10 +1486,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -1434,10 +1500,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>12</v>
@@ -1448,10 +1514,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>22</v>
@@ -1462,10 +1528,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -1476,10 +1542,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -1490,10 +1556,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>31</v>
@@ -1504,10 +1570,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
         <v>101</v>
-      </c>
-      <c r="B32" t="s">
-        <v>104</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1527,445 +1593,526 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE9A3A-60A4-460A-B7F6-234B9B4382A3}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.5546875" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7">
+        <f>D2/51</f>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7">
-        <f>C2/51</f>
-        <v>7.8431372549019607E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="C3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D27" si="0">C3/51</f>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E27" si="0">D3/51</f>
         <v>3.9215686274509803E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="6">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="E4" s="7">
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="6">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E5" s="7">
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="6">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
+        <v>39</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
+        <v>43</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
+        <v>33</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <f>C16/51</f>
+        <v>33</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <f>D16/51</f>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
+        <v>27</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="7">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
+        <v>59</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
+        <v>31</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7">
+        <v>35</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7">
+        <v>42</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7">
+        <v>41</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="11">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="9">
         <v>18</v>
       </c>
-      <c r="D28" s="14">
-        <f>C28/51</f>
+      <c r="E28" s="10">
+        <f>D28/51</f>
         <v>0.35294117647058826</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{5DDE9A3A-60A4-460A-B7F6-234B9B4382A3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D27">
-      <sortCondition descending="1" ref="D1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E1" xr:uid="{5DDE9A3A-60A4-460A-B7F6-234B9B4382A3}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1988,22 +2135,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -2016,8 +2163,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>77</v>
+      <c r="A3" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -2030,8 +2177,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>78</v>
+      <c r="A4" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -2044,8 +2191,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>79</v>
+      <c r="A5" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -2058,8 +2205,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>80</v>
+      <c r="A6" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -2072,8 +2219,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>85</v>
+      <c r="A7" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -2086,8 +2233,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>86</v>
+      <c r="A8" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2100,8 +2247,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>87</v>
+      <c r="A9" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -2114,8 +2261,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>81</v>
+      <c r="A10" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -2128,8 +2275,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>82</v>
+      <c r="A11" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -2142,8 +2289,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>83</v>
+      <c r="A12" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2156,8 +2303,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>84</v>
+      <c r="A13" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -2170,8 +2317,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>88</v>
+      <c r="A14" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>

--- a/www/tabepid.xlsx
+++ b/www/tabepid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/748e014a72d91fa1/GitHub/dashboard_lonomia_AR/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="11_AD4D361C20488DEA4E38A038EC5D5DBC5ADEDD95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{632156A5-6F3F-40DD-9DE0-5D9367D2D45F}"/>
+  <xr:revisionPtr revIDLastSave="237" documentId="11_AD4D361C20488DEA4E38A038EC5D5DBC5ADEDD95" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{970F19BA-61A9-44B1-83C0-C9C15E8AC4A0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -721,7 +721,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -745,17 +745,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -806,9 +795,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -827,19 +813,22 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1122,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,7 +1183,7 @@
       <c r="A5" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C5">
@@ -1595,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDE9A3A-60A4-460A-B7F6-234B9B4382A3}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1608,505 +1597,505 @@
     <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>D2/51</f>
         <v>7.8431372549019607E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E27" si="0">D3/51</f>
         <v>3.9215686274509803E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
         <f>D16/51</f>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="6">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>18</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <f>D28/51</f>
         <v>0.35294117647058826</v>
       </c>
@@ -2135,21 +2124,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="1">
@@ -2163,7 +2152,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="1">
@@ -2177,7 +2166,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="1">
@@ -2191,7 +2180,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="1">
@@ -2205,7 +2194,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="B6" s="1">
@@ -2219,7 +2208,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="1">
@@ -2233,7 +2222,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="1">
@@ -2247,7 +2236,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="1">
@@ -2261,7 +2250,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="1">
@@ -2275,7 +2264,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B11" s="1">
@@ -2289,7 +2278,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="1">
@@ -2303,7 +2292,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="1">
@@ -2317,7 +2306,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B14" s="2">
